--- a/data/output/FV2410_FV2404/UTILMD/55147.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55147.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10894" uniqueCount="670">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10915" uniqueCount="670">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2189,6 +2189,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U479" totalsRowShown="0">
+  <autoFilter ref="A1:U479"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2478,7 +2508,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25706,5 +25739,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55147.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55147.xlsx
@@ -4033,7 +4033,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5933,7 +5933,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6133,7 +6133,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6575,7 +6575,7 @@
         <v>616</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6737,7 +6737,7 @@
         <v>617</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6941,7 +6941,7 @@
         <v>619</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7145,7 +7145,7 @@
         <v>621</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7349,7 +7349,7 @@
         <v>623</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7553,7 +7553,7 @@
         <v>625</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7757,7 +7757,7 @@
         <v>626</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8161,7 +8161,7 @@
         <v>628</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -8723,7 +8723,7 @@
         <v>629</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -9391,7 +9391,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9637,7 +9637,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -9793,7 +9793,7 @@
         <v>630</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10105,7 +10105,7 @@
         <v>631</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10325,7 +10325,7 @@
         <v>633</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -10529,7 +10529,7 @@
         <v>634</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11279,7 +11279,7 @@
         <v>635</v>
       </c>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11841,7 +11841,7 @@
         <v>636</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12151,7 +12151,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -12369,7 +12369,7 @@
         <v>638</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12781,7 +12781,7 @@
         <v>639</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -12981,7 +12981,7 @@
         <v>640</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -13325,7 +13325,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -14213,7 +14213,7 @@
         <v>641</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="K203" s="2"/>
       <c r="L203" s="4"/>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N203" s="2" t="s">
@@ -14517,7 +14517,7 @@
         <v>642</v>
       </c>
       <c r="L206" s="4"/>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N206" s="2" t="s">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14827,7 +14827,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15433,7 +15433,7 @@
         <v>643</v>
       </c>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -15581,7 +15581,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15959,7 +15959,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -16105,7 +16105,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N237" s="2" t="s">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -16351,7 +16351,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16651,7 +16651,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16807,7 +16807,7 @@
         <v>645</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16955,7 +16955,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -17473,7 +17473,7 @@
         <v>646</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="4"/>
-      <c r="M267" s="2" t="s">
+      <c r="M267" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N267" s="2" t="s">
@@ -17783,7 +17783,7 @@
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="4"/>
-      <c r="M270" s="2" t="s">
+      <c r="M270" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N270" s="2" t="s">
@@ -17995,7 +17995,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -18245,7 +18245,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -18797,7 +18797,7 @@
         <v>647</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -18945,7 +18945,7 @@
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="4"/>
-      <c r="M293" s="2" t="s">
+      <c r="M293" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N293" s="2" t="s">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -19513,7 +19513,7 @@
         <v>648</v>
       </c>
       <c r="L304" s="4"/>
-      <c r="M304" s="2" t="s">
+      <c r="M304" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N304" s="2" t="s">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="4"/>
-      <c r="M307" s="2" t="s">
+      <c r="M307" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N307" s="2" t="s">
@@ -19825,7 +19825,7 @@
         <v>649</v>
       </c>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="K313" s="2"/>
       <c r="L313" s="4"/>
-      <c r="M313" s="2" t="s">
+      <c r="M313" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N313" s="2" t="s">
@@ -20833,7 +20833,7 @@
       </c>
       <c r="K329" s="2"/>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -20993,7 +20993,7 @@
         <v>651</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -21207,7 +21207,7 @@
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="4"/>
-      <c r="M336" s="2" t="s">
+      <c r="M336" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N336" s="2" t="s">
@@ -21365,7 +21365,7 @@
       </c>
       <c r="K339" s="2"/>
       <c r="L339" s="4"/>
-      <c r="M339" s="2" t="s">
+      <c r="M339" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N339" s="2" t="s">
@@ -21579,7 +21579,7 @@
         <v>652</v>
       </c>
       <c r="L343" s="4"/>
-      <c r="M343" s="2" t="s">
+      <c r="M343" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N343" s="2" t="s">
@@ -21883,7 +21883,7 @@
         <v>653</v>
       </c>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -22033,7 +22033,7 @@
         <v>654</v>
       </c>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -22251,7 +22251,7 @@
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22415,7 +22415,7 @@
         <v>656</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -22581,7 +22581,7 @@
         <v>657</v>
       </c>
       <c r="L362" s="4"/>
-      <c r="M362" s="2" t="s">
+      <c r="M362" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N362" s="2" t="s">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22959,7 +22959,7 @@
         <v>659</v>
       </c>
       <c r="L369" s="4"/>
-      <c r="M369" s="2" t="s">
+      <c r="M369" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N369" s="2" t="s">
@@ -23371,7 +23371,7 @@
         <v>660</v>
       </c>
       <c r="L377" s="4"/>
-      <c r="M377" s="2" t="s">
+      <c r="M377" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N377" s="2" t="s">
@@ -23571,7 +23571,7 @@
         <v>640</v>
       </c>
       <c r="L381" s="4"/>
-      <c r="M381" s="2" t="s">
+      <c r="M381" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N381" s="2" t="s">
@@ -23771,7 +23771,7 @@
         <v>661</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24129,7 +24129,7 @@
         <v>662</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -24329,7 +24329,7 @@
         <v>663</v>
       </c>
       <c r="L396" s="4"/>
-      <c r="M396" s="2" t="s">
+      <c r="M396" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N396" s="2" t="s">
@@ -24587,7 +24587,7 @@
         <v>664</v>
       </c>
       <c r="L401" s="4"/>
-      <c r="M401" s="2" t="s">
+      <c r="M401" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N401" s="2" t="s">
@@ -24735,7 +24735,7 @@
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="2" t="s">
+      <c r="M404" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N404" s="2" t="s">
@@ -24889,7 +24889,7 @@
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="4"/>
-      <c r="M407" s="2" t="s">
+      <c r="M407" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N407" s="2" t="s">
@@ -25037,7 +25037,7 @@
         <v>665</v>
       </c>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -25519,7 +25519,7 @@
         <v>667</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -25821,7 +25821,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -25967,7 +25967,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -26125,7 +26125,7 @@
       </c>
       <c r="K431" s="2"/>
       <c r="L431" s="4"/>
-      <c r="M431" s="2" t="s">
+      <c r="M431" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N431" s="2" t="s">
@@ -26497,7 +26497,7 @@
         <v>664</v>
       </c>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -26645,7 +26645,7 @@
       </c>
       <c r="K441" s="2"/>
       <c r="L441" s="4"/>
-      <c r="M441" s="2" t="s">
+      <c r="M441" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N441" s="2" t="s">
@@ -26799,7 +26799,7 @@
       </c>
       <c r="K444" s="2"/>
       <c r="L444" s="4"/>
-      <c r="M444" s="2" t="s">
+      <c r="M444" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N444" s="2" t="s">
@@ -26945,7 +26945,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -27103,7 +27103,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27259,7 +27259,7 @@
         <v>668</v>
       </c>
       <c r="L453" s="4"/>
-      <c r="M453" s="2" t="s">
+      <c r="M453" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N453" s="2" t="s">
@@ -27549,7 +27549,7 @@
       </c>
       <c r="K459" s="2"/>
       <c r="L459" s="4"/>
-      <c r="M459" s="2" t="s">
+      <c r="M459" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N459" s="2" t="s">
@@ -27709,7 +27709,7 @@
         <v>670</v>
       </c>
       <c r="L462" s="4"/>
-      <c r="M462" s="2" t="s">
+      <c r="M462" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N462" s="2" t="s">
@@ -27857,7 +27857,7 @@
       </c>
       <c r="K465" s="2"/>
       <c r="L465" s="4"/>
-      <c r="M465" s="2" t="s">
+      <c r="M465" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N465" s="2" t="s">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="K468" s="2"/>
       <c r="L468" s="4"/>
-      <c r="M468" s="2" t="s">
+      <c r="M468" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N468" s="2" t="s">
@@ -28173,7 +28173,7 @@
       </c>
       <c r="K471" s="2"/>
       <c r="L471" s="4"/>
-      <c r="M471" s="2" t="s">
+      <c r="M471" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N471" s="2" t="s">
@@ -28319,7 +28319,7 @@
       </c>
       <c r="K474" s="2"/>
       <c r="L474" s="4"/>
-      <c r="M474" s="2" t="s">
+      <c r="M474" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N474" s="2" t="s">
@@ -28479,7 +28479,7 @@
       </c>
       <c r="K477" s="2"/>
       <c r="L477" s="4"/>
-      <c r="M477" s="2" t="s">
+      <c r="M477" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N477" s="2"/>
